--- a/medicine/Enfance/Michel_Galvin/Michel_Galvin.xlsx
+++ b/medicine/Enfance/Michel_Galvin/Michel_Galvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Michel Galvin, né le 6 septembre 1959  à Montreuil (Seine-Saint-Denis) (France), est un dessinateur de presse, illustrateur et auteur de bande dessinée français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Galvin est né  le 6 septembre 1959[1] à Montreuil (Seine-Saint-Denis)[2]. Après avoir suivi des études aux Beaux-arts de Paris, il se lance ensuite dans la peinture et la scénographie. Il travaille ensuite pour la presse (Le Monde, Libération, dont il illustre notamment la rubrique « Faits divers »[2], Télérama, Phosphore,…) puis se tourne vers l'édition jeunesse et la bande dessinée.
-Pour son ouvrage jeunesse La Vie rêvée, il est lauréat de la Pépite du livre 2014, Catégorie Album[3] (Salon du livre et de la presse jeunesse Seine-Saint-Denis) et du Grand prix de l'illustration 2015[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Galvin est né  le 6 septembre 1959 à Montreuil (Seine-Saint-Denis). Après avoir suivi des études aux Beaux-arts de Paris, il se lance ensuite dans la peinture et la scénographie. Il travaille ensuite pour la presse (Le Monde, Libération, dont il illustre notamment la rubrique « Faits divers », Télérama, Phosphore,…) puis se tourne vers l'édition jeunesse et la bande dessinée.
+Pour son ouvrage jeunesse La Vie rêvée, il est lauréat de la Pépite du livre 2014, Catégorie Album (Salon du livre et de la presse jeunesse Seine-Saint-Denis) et du Grand prix de l'illustration 2015.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Livres jeunesse
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Livres jeunesse
 L’Étroit Cavalier, Seuil Jeunesse - 2006
 Matoumax, Seuil Jeunesse - 2007
 Jean-Luc et le caillou bleu, Seuil Jeunesse - 2008
@@ -554,7 +573,7 @@
 C'est un monde ! Le diable expliqué aux enfants ou pourquoi papa bricole, Seuil Jeunesse - 2009
 Le Grand Trou Américain, Éditions du Rouergue  - 2012
  Le Vilo de Torticolo, éditions du Rouergue - 2013
-La Vie rêvée, éditions du Rouergue - 2014 Pépite du livre 2014, Catégorie Album (Salon du livre et de la presse jeunesse Seine-Saint-Denis)[3] - Grand prix de l'illustration 2015[4].
+La Vie rêvée, éditions du Rouergue - 2014 Pépite du livre 2014, Catégorie Album (Salon du livre et de la presse jeunesse Seine-Saint-Denis) - Grand prix de l'illustration 2015.
 Bandes Dessinées
 Routine, Éditions Thierry Magnier - 2007
 Fin de chaîne, Éditions Sarbacane - 2009
@@ -562,9 +581,43 @@
 Sous le pseudonyme Wolfgang Placard
 Les Semi-Aventures des Hommes-rats, Lito - 2006
 # Monsieur Laperche
-# Monsieur Lafleur
-Illustrateur
-Bertrand Solet, En 1789, Nicolas de Montreuil, Paris, Messidor-la Farandole, 1988
+# Monsieur Lafleur</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Galvin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Galvin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bertrand Solet, En 1789, Nicolas de Montreuil, Paris, Messidor-la Farandole, 1988
 Pascal Garnier, Motus, 1989
 Pascal Garnier, Lili Bouche d'enfer , Syros, 1989
 Corinne Arbore et Pierre Mezinski, Le Jardin des gâteaux, Nathan, 1990
@@ -575,35 +628,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Michel_Galvin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Galvin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2008 : (international) « Honour List »[5] de l' IBBY pour L’Étroit cavalier
-2014 : Pépite du livre 2014, Catégorie Album[3] (Salon du livre et de la presse jeunesse Seine-Saint-Denis) pour La Vie rêvée
-2015 : Grand prix de l'illustration 2015[4] pour La Vie rêvée</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2008 : (international) « Honour List » de l' IBBY pour L’Étroit cavalier
+2014 : Pépite du livre 2014, Catégorie Album (Salon du livre et de la presse jeunesse Seine-Saint-Denis) pour La Vie rêvée
+2015 : Grand prix de l'illustration 2015 pour La Vie rêvée</t>
         </is>
       </c>
     </row>
